--- a/resources/Excel/Sky/光遇历史复刻汇总.xlsx
+++ b/resources/Excel/Sky/光遇历史复刻汇总.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\.Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitee\resources\resources\Excel\Sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{789DF46D-48F8-461C-B509-F82484CB9EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313BD204-7804-443D-9491-015DDEE2C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{FC444CFD-4A39-4695-8748-A732ED158008}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>年</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -471,10 +471,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D715697-BE6B-4FAA-8E86-1EDB377A9F47}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141:E141"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142:E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2164,10 +2164,10 @@
       <c r="C51" s="1">
         <v>1</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="1">
         <v>1</v>
       </c>
@@ -2486,10 +2486,10 @@
       <c r="C63" s="1">
         <v>10</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="1">
         <v>1</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="A90" s="2">
         <v>2023</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" s="1">
@@ -3234,7 +3234,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="1">
         <v>21</v>
       </c>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="1">
         <v>26</v>
       </c>
@@ -4491,12 +4491,58 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D138" s="2"/>
+      <c r="A138" s="2"/>
+      <c r="B138" s="2">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1">
+        <v>11</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E138" s="2"/>
+      <c r="F138" s="1">
+        <v>2</v>
+      </c>
+      <c r="G138" s="1">
+        <v>2</v>
+      </c>
+      <c r="H138" s="1">
+        <v>202</v>
+      </c>
+      <c r="I138" s="1">
+        <v>12</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D139" s="2"/>
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="1">
+        <v>25</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E139" s="2"/>
+      <c r="F139" s="1">
+        <v>3</v>
+      </c>
+      <c r="G139" s="1">
+        <v>3</v>
+      </c>
+      <c r="H139" s="1">
+        <v>125</v>
+      </c>
+      <c r="I139" s="1">
+        <v>13</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D140" s="2"/>
@@ -5011,31 +5057,276 @@
       <c r="E267" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="315">
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="A122:A137"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A90:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
+  <mergeCells count="316">
+    <mergeCell ref="A122:A139"/>
+    <mergeCell ref="A60:A89"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A29:A59"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="D111:E111"/>
     <mergeCell ref="D112:E112"/>
     <mergeCell ref="D113:E113"/>
@@ -5060,273 +5351,29 @@
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A29:A59"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="B129:B131"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="A60:A89"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A90:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Excel/Sky/光遇历史复刻汇总.xlsx
+++ b/resources/Excel/Sky/光遇历史复刻汇总.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitee\resources\resources\Excel\Sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313BD204-7804-443D-9491-015DDEE2C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314CFD2B-0858-407B-B3AA-75C68954A547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{FC444CFD-4A39-4695-8748-A732ED158008}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="94">
   <si>
     <t>年</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -401,6 +401,14 @@
   </si>
   <si>
     <t>小王子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦虑渔夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜海</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +479,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D715697-BE6B-4FAA-8E86-1EDB377A9F47}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142:E142"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q132" sqref="Q132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2164,10 +2172,10 @@
       <c r="C51" s="1">
         <v>1</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="1">
         <v>1</v>
       </c>
@@ -2486,10 +2494,10 @@
       <c r="C63" s="1">
         <v>10</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="1">
         <v>1</v>
       </c>
@@ -3206,7 +3214,7 @@
       <c r="A90" s="2">
         <v>2023</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>1</v>
       </c>
       <c r="C90" s="1">
@@ -3234,7 +3242,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="4"/>
       <c r="C91" s="1">
         <v>21</v>
       </c>
@@ -3260,7 +3268,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="1">
         <v>26</v>
       </c>
@@ -4545,20 +4553,106 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D140" s="2"/>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2">
+        <v>8</v>
+      </c>
+      <c r="C140" s="1">
+        <v>8</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E140" s="2"/>
+      <c r="F140" s="1">
+        <v>4</v>
+      </c>
+      <c r="G140" s="1">
+        <v>4</v>
+      </c>
+      <c r="H140" s="1">
+        <v>195</v>
+      </c>
+      <c r="I140" s="1">
+        <v>10</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D141" s="2"/>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="1">
+        <v>22</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E141" s="2"/>
+      <c r="F141" s="1">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1">
+        <v>1</v>
+      </c>
+      <c r="H141" s="1">
+        <v>228</v>
+      </c>
+      <c r="I141" s="1">
+        <v>13</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D142" s="2"/>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2">
+        <v>9</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E142" s="2"/>
+      <c r="F142" s="1">
+        <v>2</v>
+      </c>
+      <c r="G142" s="1">
+        <v>2</v>
+      </c>
+      <c r="H142" s="1">
+        <v>103</v>
+      </c>
+      <c r="I142" s="1">
+        <v>13</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D143" s="2"/>
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="1">
+        <v>19</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E143" s="2"/>
+      <c r="F143" s="1">
+        <v>3</v>
+      </c>
+      <c r="G143" s="1">
+        <v>3</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D144" s="2"/>
@@ -5057,31 +5151,278 @@
       <c r="E267" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="316">
-    <mergeCell ref="A122:A139"/>
-    <mergeCell ref="A60:A89"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D233:E233"/>
+  <mergeCells count="318">
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="A122:A143"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A90:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A29:A59"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
     <mergeCell ref="B138:B139"/>
     <mergeCell ref="B129:B131"/>
     <mergeCell ref="B115:B117"/>
@@ -5106,274 +5447,29 @@
     <mergeCell ref="D179:E179"/>
     <mergeCell ref="D180:E180"/>
     <mergeCell ref="D181:E181"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A29:A59"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A90:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A60:A89"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D233:E233"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Excel/Sky/光遇历史复刻汇总.xlsx
+++ b/resources/Excel/Sky/光遇历史复刻汇总.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gitee\resources\resources\Excel\Sky\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314CFD2B-0858-407B-B3AA-75C68954A547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E9DA1-8FFE-4DD6-9907-35F550190BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{FC444CFD-4A39-4695-8748-A732ED158008}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="96">
   <si>
     <t>年</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -409,6 +409,14 @@
   </si>
   <si>
     <t>潜海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表演</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老练的音乐家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +487,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -802,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D715697-BE6B-4FAA-8E86-1EDB377A9F47}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q132" sqref="Q132"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149:E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2172,10 +2180,10 @@
       <c r="C51" s="1">
         <v>1</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="1">
         <v>1</v>
       </c>
@@ -2494,10 +2502,10 @@
       <c r="C63" s="1">
         <v>10</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="1">
         <v>1</v>
       </c>
@@ -3214,7 +3222,7 @@
       <c r="A90" s="2">
         <v>2023</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" s="1">
@@ -3242,7 +3250,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="1">
         <v>21</v>
       </c>
@@ -3268,7 +3276,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="4"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="1">
         <v>26</v>
       </c>
@@ -4650,75 +4658,127 @@
       <c r="G143" s="1">
         <v>3</v>
       </c>
+      <c r="H143" s="1">
+        <v>201</v>
+      </c>
+      <c r="I143" s="1">
+        <v>13</v>
+      </c>
       <c r="J143" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D144" s="2"/>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="1">
+        <v>28</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D145" s="2"/>
+      <c r="F144" s="1">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1">
+        <v>1</v>
+      </c>
+      <c r="H144" s="1">
+        <v>237</v>
+      </c>
+      <c r="I144" s="1">
+        <v>13</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="2"/>
+      <c r="B145" s="1">
+        <v>10</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="1">
+        <v>4</v>
+      </c>
+      <c r="G145" s="1">
+        <v>3</v>
+      </c>
+      <c r="H145" s="1">
+        <v>145</v>
+      </c>
+      <c r="I145" s="1">
+        <v>13</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
     </row>
@@ -5152,59 +5212,244 @@
     </row>
   </sheetData>
   <mergeCells count="318">
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="A122:A143"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B124:B126"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="A90:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="A60:A89"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="D225:E225"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="D229:E229"/>
+    <mergeCell ref="D231:E231"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="D177:E177"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="D230:E230"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="D203:E203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A29:A59"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="E3:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A3:A28"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>
@@ -5229,247 +5474,62 @@
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="E3:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A29:A59"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="D254:E254"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="D193:E193"/>
-    <mergeCell ref="D194:E194"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="D235:E235"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="A90:A121"/>
+    <mergeCell ref="B118:B121"/>
     <mergeCell ref="B138:B139"/>
     <mergeCell ref="B129:B131"/>
     <mergeCell ref="B115:B117"/>
     <mergeCell ref="B113:B114"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="D230:E230"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="D177:E177"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="D180:E180"/>
-    <mergeCell ref="D181:E181"/>
-    <mergeCell ref="A60:A89"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D224:E224"/>
-    <mergeCell ref="D225:E225"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="D229:E229"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="A122:A145"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
